--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757540.462982148</v>
+        <v>2757540.46298215</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800646</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064518</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X8" t="n">
         <v>592.2818334606677</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.2127885434264</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,43 +1788,43 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D20" t="n">
         <v>410.3391557398498</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
         <v>629.8510241668239</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C29" t="n">
         <v>449.4745782429939</v>
@@ -2857,7 +2857,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759809475</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="33">
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F35" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3447,43 +3447,43 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V38" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
         <v>638.3734759809475</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,49 +3684,49 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>2631.383042915614</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>252.7173376662921</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>402.2039476630057</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>419.5989422556117</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4573,25 +4573,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473565</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987068</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4743,10 +4743,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
-        <v>438.463966970767</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,52 +4786,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2354.016346177312</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4849,13 +4849,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,49 +5050,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>5124.203572786019</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5238,10 +5238,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5269,43 +5269,43 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5472,22 +5472,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5524,25 +5524,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
         <v>2126.146990020859</v>
@@ -5755,55 +5755,55 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5922,40 +5922,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
         <v>140.96</v>
@@ -6001,16 +6001,16 @@
         <v>1841.010275303557</v>
       </c>
       <c r="L23" t="n">
-        <v>2819.17922466306</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M23" t="n">
-        <v>3301.358424176563</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N23" t="n">
-        <v>3866.401488049235</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O23" t="n">
-        <v>4776.556370989979</v>
+        <v>5550.205262006314</v>
       </c>
       <c r="P23" t="n">
         <v>6474.295852434775</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6186,19 +6186,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6229,28 +6229,28 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>704.4155922412742</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6265,13 +6265,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
         <v>3583.51196363841</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6420,22 +6420,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6466,31 +6466,31 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>3553.537024987068</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N29" t="n">
-        <v>4118.58008885974</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
@@ -6505,16 +6505,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6657,22 +6657,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6706,25 +6706,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>704.4155922412742</v>
       </c>
       <c r="K32" t="n">
-        <v>2550.716641651425</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
         <v>6931.116362236997</v>
@@ -6733,22 +6733,22 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
         <v>3067.029708403252</v>
@@ -6897,7 +6897,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6931,10 +6931,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6943,28 +6943,28 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L35" t="n">
-        <v>3071.357825473565</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M35" t="n">
-        <v>3553.537024987068</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N35" t="n">
-        <v>4118.58008885974</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O35" t="n">
-        <v>5028.734971800483</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7131,22 +7131,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7183,22 +7183,22 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1936.671378010443</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010443</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7213,7 +7213,7 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
         <v>4826.598134791557</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7374,16 +7374,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7414,31 +7414,31 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7611,7 +7611,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7645,37 +7645,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7818,34 +7818,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7990,25 +7990,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>301.799730824009</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>459.8234496459304</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>931.766039788185</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>645.1956588512421</v>
+        <v>97.98316547195691</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,16 +8473,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,16 +8710,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>21.63135028026977</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>383.4716344542434</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9424,13 +9424,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>61.18810711406081</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>89.1144063949971</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>105.6954007733558</v>
       </c>
       <c r="K26" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>496.2158265843855</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>29.34358558166849</v>
       </c>
       <c r="K32" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>433.9782470873015</v>
       </c>
       <c r="L35" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>96.62737647160202</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>315.9139665186111</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,16 +11080,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>510.3300622789884</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>459.8234496459306</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>61.16002129528329</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24162,16 +24162,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24198,7 +24198,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
         <v>287.4653528494624</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24426,7 +24426,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24438,7 +24438,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y25" t="n">
-        <v>287.4653528494624</v>
+        <v>273.0672506624611</v>
       </c>
     </row>
     <row r="26">
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24660,10 +24660,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="33">
@@ -25137,10 +25137,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25171,13 +25171,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V38" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25851,10 +25851,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25885,10 +25885,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572747</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907112</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547814</v>
+        <v>5066546.631206329</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.652196138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162778</v>
+        <v>7379034.67318594</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175739</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165539</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734844</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925533</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116222</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306911</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.4317497601</v>
+        <v>15472742.82011457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688292</v>
+        <v>16628986.84110439</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878983</v>
+        <v>17785230.86209421</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.354241131</v>
+        <v>913048.3542411318</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411312</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411316</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="F2" t="n">
         <v>817831.1367976688</v>
@@ -26340,16 +26340,16 @@
         <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.1367976692</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.136797669</v>
       </c>
       <c r="K2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="M2" t="n">
         <v>817831.1367976688</v>
@@ -26361,7 +26361,7 @@
         <v>817831.1367976685</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.136797669</v>
       </c>
     </row>
     <row r="3">
@@ -26432,25 +26432,25 @@
         <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38928.9367276959</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38928.9367276959</v>
+      </c>
+      <c r="I4" t="n">
         <v>38928.93672769592</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38928.93672769592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38928.93672769591</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769592</v>
@@ -26462,10 +26462,10 @@
         <v>38928.93672769592</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
     </row>
     <row r="5">
@@ -26527,16 +26527,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1418478.923709697</v>
+        <v>-1418478.923709696</v>
       </c>
       <c r="C6" t="n">
-        <v>626522.0273447842</v>
+        <v>626522.0273447845</v>
       </c>
       <c r="D6" t="n">
-        <v>626824.3880147175</v>
+        <v>626824.3880147176</v>
       </c>
       <c r="E6" t="n">
-        <v>639922.8000699726</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="F6" t="n">
         <v>639922.8000699729</v>
@@ -26548,16 +26548,16 @@
         <v>639922.800069973</v>
       </c>
       <c r="I6" t="n">
-        <v>639922.8000699733</v>
+        <v>639922.8000699732</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997287</v>
+        <v>19698.80006997311</v>
       </c>
       <c r="K6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="L6" t="n">
-        <v>639922.8000699729</v>
+        <v>639922.800069973</v>
       </c>
       <c r="M6" t="n">
         <v>639922.8000699729</v>
@@ -26569,7 +26569,7 @@
         <v>639922.8000699726</v>
       </c>
       <c r="P6" t="n">
-        <v>639922.8000699728</v>
+        <v>639922.8000699731</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C4" t="n">
         <v>272.7252466480447</v>
@@ -27696,13 +27696,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>70.13475955780865</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O7" t="n">
         <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>388.0294482079483</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -34825,34 +34825,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1228.661067507426</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067561</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34962,7 +34962,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34992,13 +34992,13 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>38.2788363180623</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35065,19 +35065,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356541</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O7" t="n">
         <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.05699553466</v>
+        <v>1024.844502155374</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,16 +35317,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35554,16 +35554,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>865.9417827018998</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1274.04639948992</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35794,13 +35794,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36016,16 +36016,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
@@ -36034,10 +36034,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>844.9064928403257</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1274.04639948992</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36268,13 +36268,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36493,7 +36493,7 @@
         <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>988.049443797478</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>933.4248388166272</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>569.1470628699741</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>1673.080039788185</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1415.564193191198</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>492.7952476782868</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37219,7 +37219,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>1181.092533519462</v>
       </c>
       <c r="L35" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37459,7 +37459,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,13 +37675,13 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>843.741662903763</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>802.9636629968968</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37693,7 +37693,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,16 +37924,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1429.6784288858</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38143,25 +38143,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.171816252742</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
